--- a/biology/Botanique/Malacomeles/Malacomeles.xlsx
+++ b/biology/Botanique/Malacomeles/Malacomeles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Malacomes, ou faux amélanchier, est un genre de plantes à fleurs de la famille des Rosaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il est proche des genres des espèces Amelanchier, Peraphyllum, Crataegus et Mespilus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il est proche des genres des espèces Amelanchier, Peraphyllum, Crataegus et Mespilus.
 Les espèces du genre Malacomeles sont :
-Malacomeles denticulata. C'est un arbuste xérophile à petites feuilles et fleurs. Il est de taille moyenne et a pour fruits de petites pommes comestibles insipides. L'espèce se trouve dans la zone de la flore uniquement dans le trans-Pecos Texas sur les pentes d'éboulis, les canyons, sur des substrats calcaires et ignés[2].
+Malacomeles denticulata. C'est un arbuste xérophile à petites feuilles et fleurs. Il est de taille moyenne et a pour fruits de petites pommes comestibles insipides. L'espèce se trouve dans la zone de la flore uniquement dans le trans-Pecos Texas sur les pentes d'éboulis, les canyons, sur des substrats calcaires et ignés.
 Malacomeles nervosa
 Malacomeles paniculata</t>
         </is>
@@ -545,7 +559,9 @@
           <t>Description et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les arbustes de ce genre sont présents en Amérique centrale 
 </t>
@@ -576,9 +592,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(Decne.) Decne., Ann. Gén. Hort. 23(7–9): 156. 1880 [1882].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Decne.) Decne., Ann. Gén. Hort. 23(7–9): 156. 1880 .</t>
         </is>
       </c>
     </row>
